--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/11_Aydın_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/11_Aydın_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4D78FF-EF1F-4899-8CED-391C6A264E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65814E87-A6F1-4117-A8DD-4865E448CD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70302956-F3A2-43B0-A2DC-D91A8AA1E840}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E274CCC-C8F3-42FC-AB27-5D7F6EFE7AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{607DD8F2-CE44-4D79-AC88-2D5F7E80AB01}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{61D83D6E-F833-4D55-9FB7-309BB0ACA7C1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{ABA3BEE6-A28B-4FBC-AEF2-1DFDC70BBB72}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{D282ABA8-C743-45FC-9386-6C8516DACCCA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{8B9E34F1-D716-4DA2-B664-3D20516CB5AC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{F0F0AD3C-43B3-426A-9D58-7BC19E564FEB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{E481DD4A-A2DB-4991-8339-60F991BE526C}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{13E1E788-3457-4E97-9DE9-367CDC8E5BEC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD161854-475A-4E34-A242-08C3F6351B2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EE0F00-4734-4EA3-B50C-70B53DA54C9A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2473,18 +2473,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CC16A300-B3EA-455B-B10E-57CF498BCC91}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F5B79F99-4CD3-41BC-8E1E-682B1903C484}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4F9CBF44-4754-45FE-BAD3-66B642F349C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{18410DDA-C1F9-4905-BBA5-EB8811CEC7CA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{08CFFDC1-26E5-484B-90FA-C379019975CB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8EA0E7A3-4099-48D0-8E89-3C72E7A78185}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CBE0AB5F-29F3-4B94-A707-1EF6C5DE35AB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A301357A-A426-49C1-BE91-F4FB677217F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CD0F22B6-028C-401A-AB7A-8303BC08E70B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{65915403-D7A4-439D-8E6E-2F3B20F0C5D2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3450953D-F208-4F42-8507-7B11FDB7C4DB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EAE96D5B-19FF-4B9A-8EF4-0084D95B765E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6AF9B4E5-7E19-46F4-B50E-AE1767D5FF2D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B2631BCA-7B8D-482E-A1DE-028E05DE78F4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CD97ADD0-BFF1-490D-8354-BE92A429B4FB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4694D181-E259-4758-8728-7158E9098497}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1D500461-9C5D-4771-A723-689BC684A4D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E0D918E0-F5FD-4246-BE60-825B63608446}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6E7F56C8-8B61-4811-A8B1-4CF03A4CFC3D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7F8279B7-B0AF-4B3A-B458-DAFC26494CFF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{13B693AD-A3CC-42C4-91AA-CBC4A4BE1817}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A3D39B79-E64C-4E4D-9FF5-FEC351CD4A9B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7BF19234-323E-46C9-AB90-D7AF2013D69A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7F9BEEF0-C5F6-4832-A63C-0DE9B6A7D59A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2497,7 +2497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663C0FF9-B4CA-4532-B3E2-CD193EC7C0E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F032683-A9E6-4E72-AD76-21BC6C000B9D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3694,18 +3694,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0BFBD924-0C18-44F9-AB29-D96D3FE26388}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{21E62E3F-92AC-47DA-BFFF-6BF4CA7E0359}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B0CA56FB-377E-4BDD-ADC5-28D5FBF91C53}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B17DE406-D3A5-45DD-9A53-37E14806977E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0456A159-4C82-4381-8BBD-4FCBCB31B7D3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4A4988C4-383A-4A8F-ACAD-0152B8CCD73F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7C5DDA9F-FAFD-44E5-9BA7-E8761E09674B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CF885F97-8D3D-4A94-A151-FA61449EEBC0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EEFEA08C-0182-4B7A-96C4-590D15B38EE8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D6CEE6B5-C873-4C08-A960-11EF5575F287}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{89880375-5510-4B67-874C-730AE9D60B2F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{328D2730-2E74-4250-977A-5C06F274A45A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ECD97DB3-8016-4A2B-A3F4-80C8C906F99A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{78BCC34C-F647-4EC1-A0BE-5F5E2DA91392}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D2EA00AF-6321-4B1A-81D1-716C57088C27}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7348CF83-062C-41BF-A2E6-9A2394CDAC47}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CF4CE19B-E873-454A-AF0D-70D985FC953D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D0CF09D0-05F0-4D52-BD32-1652101624AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4B9018FE-EB8A-4017-B807-A2AB4AEA4304}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1ADEBA64-2332-433A-8803-D60AE2571EE2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DB0C8CD0-6066-410F-A683-2795361BF687}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C03E30AB-2BCD-4428-9EB2-4A7C0A486915}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8CC496E0-1E0D-48A9-8B8D-CAFC2FFC2535}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1DF7BA14-E39F-4FEF-81DA-219D32C09751}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3718,7 +3718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DA143C-559D-4676-97F1-791B317F485C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE056578-7782-42C0-AA78-3A1D28A6CDF1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4907,18 +4907,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E1189DB6-D3B9-4669-8299-092600A56F8A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A80F8AA1-B92D-4C9B-BC32-98424A042567}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F6C07F87-B606-435F-B7E0-936975635497}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{79150EF5-A97D-4624-8757-815B3DE403B1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{47E2208C-D7F9-432B-A8EE-E10F53936EE4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CF8A0C21-26F3-4166-A339-EB0E9517B282}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{76E049F6-79E2-4BBD-99CF-132F2234551D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{178DCE79-5736-48CE-B1FD-F814E15A8383}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{34E89F37-3EFA-45CD-9511-4C183985FF08}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5C1A487F-246B-485A-955A-92BEA08B22F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{190C7057-C0B8-487E-873A-52BE5A8E8ED4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2D4561FF-DC91-4251-B187-BF19156958F9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{19F3E2B8-ED1B-4ACD-9B21-BD466F96342B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CF8AF88A-E5E9-4B58-94D7-933DEF3CF17F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4227D18B-EA67-4CAE-9F17-837911BA3F1F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CF6BB0C5-56DD-4F60-BA60-A590F123B78F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D0CB96E0-FE41-415C-A15B-D76C790FBB2F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0A4E3BEF-3B2A-49AB-BC72-912B0775173D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F62B2AC9-D194-4DA9-AE87-B271B46967B1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B178D656-17B0-471E-90CF-46A8A3E89A6A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{912139A5-9CB5-4514-9C2E-4B72ED403EAD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CB3A5470-6752-469D-93F4-B8EE6B7A90C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{048C83AC-A7F7-4A85-B7A4-88801CE0AC51}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8CC6E4AA-CB52-4C90-9796-1DBB55526B48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4931,7 +4931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B10400-B325-420B-B1B8-CCE17F024981}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36098F68-E3FE-40D2-B960-FD737D11A46B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6114,18 +6114,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{53305D0D-375F-4308-AE55-912A98EA2AFC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E2BB02FD-4FC7-4423-879D-E697582533CC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{23EEA420-7DC5-4493-935E-CAF725748BF8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{143704DA-8C8F-4A26-91E1-0405ADEE1C90}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{103FFEDE-197F-4FC2-91E0-00FBBFFBF7F5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8957E3D3-B985-4E58-88A2-7CED4E4515D9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5D1EFF1D-DE55-4DEE-A354-A884208FAE66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A7E68D55-96D4-493F-9472-5A019590CBE2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3F46D30B-466F-4232-975A-5941CCA98571}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{095A2B8E-61F5-486B-BA7B-BFB1D6AEA112}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{23523EEE-37DC-495A-896D-4CB6729C7369}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FDCEAF38-708B-46AC-89BD-1C30D15015EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{440BA52E-A4ED-48ED-BE2D-0C58FA39D590}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{188037AB-BBC7-4A36-941F-ADF4A43D791A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B2F861C3-F017-443B-8218-D49D9BFAA879}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A40D7DE1-4267-414B-8919-02DA799ADD26}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1D5E0836-AC65-46CE-9F0E-98A7F3A38427}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B474AA0F-6961-450A-ACAC-36DD76A0393D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9CAAA5DD-1EC0-4326-92F0-BD590E9E0726}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F20C0117-BA20-4304-B1C7-3C1247D1A0BE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0254A2D6-888C-407A-A0F2-E25E9BBB2900}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{95DE830D-3772-4105-8374-785E5774548F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5AD028D7-39EF-4B62-B19B-1BFDDDBA2531}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{29B12AD9-2E40-419F-91EB-CACA71B444AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6138,7 +6138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75C3F49-6B90-4A8B-96AE-8C4748831BF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8996FC94-170B-4F9E-99D2-0F052B5FA3B5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7377,18 +7377,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E69154D8-DD36-4F36-BDE7-4752BC5061BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{955AAA62-8727-4676-9231-2E83206A05EB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D143C09A-423C-4598-875D-98F6E2F9C2BD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{80B211D8-78EB-4A3F-A974-6E0D45B65578}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DE907F35-8403-49FF-AAF2-9AA57856B7AF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{23EDC0FE-7C6C-40B7-8FDA-45895D2B469C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{95F13DA8-FC5C-40CC-A672-88131F2707CF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2ED7F29C-0879-40C1-B698-E191FA5EF545}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2146BDFB-DD80-428E-9D01-EF866F9EF340}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E135E265-077F-4F81-9828-AA102FFD7463}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{371A481B-0F96-4451-A777-FD7AEE4D7D7C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{02D679B1-10BC-4681-8BFE-28CF60F499AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6C2F1958-D7A2-47D9-B3B9-FED9DB6AF733}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D362A025-6874-42CC-9F4A-39DDFEC30728}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{34D76D71-F868-430C-844E-6FF756A13475}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{96F98D17-610B-4274-A118-B0E452B40F27}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CF990636-4126-47A7-99D4-467AC5B8035E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{21585375-2E61-493B-8DBE-1DAE49200146}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{60513F0C-A91B-46B2-9312-18BBD16B1DAB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AD4E3FDF-ADB8-4883-B3A1-1C62A84EF7CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6168A9F0-6BFF-4F70-BE37-9FCD6E822943}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3E6061F2-EE71-48FE-AFE6-B56643304655}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{17DD4C4A-2ECB-4A51-9CDB-0D3C179DF4C0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E88F2B33-7714-4578-AAC1-DB7360626405}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7401,7 +7401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF417456-78B7-40DD-A702-CD393494FD4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECF5BCF-CD10-4D62-88A7-43F3370384CF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8640,18 +8640,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1C6A3EA7-10C2-409E-8D92-0D6160178FBE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2E48C494-DA39-48CD-A35E-AEE8A57E67ED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2259BC2A-90AE-4690-8C48-1C4ABF3AFBBE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E95ABE23-6E31-4807-A057-7BACF809055D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1B3E7CDB-D4D2-488B-A16A-74D6EB305B52}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0E17FC28-D7C8-4513-A92B-03397BF7064F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9F2480C3-4598-484A-8F11-74156E20DC64}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AEA7E9D4-A59D-4172-A0C0-8185A0AE6500}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E9D39F02-59C3-4C3E-B83D-DE57E00F76AA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{02AD4936-5D6A-46E2-9106-1FC7E5E08200}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{735FB9E1-6B1F-4F52-A838-4B724E788D9D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B4E708B4-F6C9-415F-BAB3-0806AFE7EE64}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BF332DE4-9BE7-403C-B0E6-82ADE6068D68}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{59F4C968-1F94-46EB-A146-0207BBFB6C12}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4453985B-BBDD-4222-A295-E380C6CD38E0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8A874548-C9B0-44C6-99AA-A4E91EEE7BD1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{138976A3-DC9E-439E-A71C-B84B2ECBC459}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{022222B9-45A3-4746-A10C-E2470F9DF61F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7643C262-2BF5-40C1-AA2A-7FEA57D7FB80}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FFE867BF-0D3D-4BDC-8F5A-EDE217872AF1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D03E0C4F-BDA4-4D00-AF78-88E6EC781D9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{24B461E9-9814-41C1-A9A8-5BA97C75B2B5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5859A3CE-CFEF-4A14-BF2B-3064FBAE7C99}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9C5D1B5B-8B96-4B0B-90AF-567FE87FD474}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8664,7 +8664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8CE7B5-5C71-42AA-9BA3-94482E05862A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574F7FD3-C2D8-452F-A97C-7F4181A3F7E1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9903,18 +9903,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{59B2830D-10E8-45DF-98AE-1D53B6B1B4A2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{200C24C2-D82A-4139-BCB5-4E928661A155}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2700FB66-4603-48D1-9F71-2D0D56412920}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B5BFAF73-D267-43E4-BFF0-AEC3DBCD9CFE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1030922C-067B-4D17-A3B2-2B9B53DD2E80}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BA0AA8A6-74E6-46E2-BA40-AC786F08303B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DD41A101-70A5-4F26-9EB7-FB5DC40DC195}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{065201FD-F96D-49B5-88CE-1FD4CC3E8646}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5CF077B8-7BB5-4729-8BF9-2915EB2D4C1C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{358B3189-9A5A-4599-BCA5-EBE0EDAEDCFA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F8CE4E25-9C03-4B00-8929-D715903623D4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6C229A67-D43B-4B8F-9CE4-F2B4CCB28B12}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D45E22D2-F376-4B0C-BD37-088BA8AE8E38}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{983B847D-94BE-4491-9A9A-ABDB38A90FB2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{23FAED89-6137-4043-9BBD-EF95B67A4469}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5B2D8CE2-0FCA-4D5E-BC94-E399DE891AB4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6E36435B-697B-4766-8103-A40C5F707791}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7A427F46-3B24-4A70-B2F1-49F76C459CD5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F3A4BD5B-6CFE-4505-B9C2-D8BA8115D70D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A26A57B0-0187-4171-B2C6-46CFAA16DE35}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{27916135-C343-48E0-B556-1038018BFD1C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{55F4AB80-8536-4A91-88C5-AFAB2D2C91B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DD4AAFF9-AAC6-4E2D-BEF4-9BD67C84A154}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C6E8F6C8-704E-4F3E-87C6-C90A9D522E15}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9927,7 +9927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0431A6-004C-47FE-BA93-6F8E26B61580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AE7789-EFF4-44D3-8563-B43F36ADD30E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11154,18 +11154,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{69C067B6-0FDE-46BA-9E6B-40B0DB82AFA2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{624D1D22-1920-402E-A701-6D6DA993FF94}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{82BAA057-9A82-4E89-8005-835FE157A560}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8134284D-E4A1-4982-BF95-68F7AE44F80F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{66A658A5-14F9-42C5-ADC9-D297EB655BAE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{65DC6DD3-6FE8-4FE5-A154-ED65A4C38F6F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D2BC4DB9-5960-4625-A36E-D8DAD32D8375}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5B3EFB1C-A9EA-4049-AEAD-847447C3F001}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C12EBEA8-4A59-4BFE-8BED-602FAEEAB0AA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F16D7020-A51A-445F-AB7F-00DA86BCBF85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A6F3099A-06F9-485F-8BB8-EC61314D0934}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{14A6D9C1-3CC4-4708-8EF5-CA45C2566FD7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B6837EA9-59E4-41A2-AC48-5B0C1C1E1B8F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C3A3C76C-E179-4275-96FE-D01414A48B76}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{12B09685-4AC1-42A9-8C7B-5E715A1B9847}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B5A9E019-3B50-4845-A6AD-2EC362325E97}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{58D88498-86BC-4A29-8850-4147782C9B39}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{829C5A36-F298-4D95-A5FB-54EACABBB071}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F46CFB47-87CF-40CE-936F-33FCFA2E997C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{45496090-AE31-4C19-8D70-39BC798FB5BE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A5B163CC-7DA1-4F24-9AE4-55DD698A1C9A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{982A6470-61F9-4602-AE68-368EC70FF322}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{877F5480-FAC5-4C5B-9323-D8E2265077DF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FAAC3514-7FCD-4C32-90C7-EFE826914DDE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11178,7 +11178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB80FDA-C4ED-4D18-9DA1-67436692208B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F494E6-6799-41B6-B7A6-249BBE0BAE24}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12397,18 +12397,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1775FA74-DB01-40D3-808B-EDC2A8E90B9A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8920F1DF-8ED7-4830-A5FD-471D892CAEB3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{903224AA-EC36-4C10-A39E-D5BDCC13D97F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E3832DB0-4EFC-4112-B7F6-76BE390CD25C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{62AF3A8F-C062-42D8-8206-293F09B1066F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{86B9FEE7-39C6-4F47-A1E9-8100A09FAD8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{32578B71-9AA0-418A-AD3D-7B791FAEBBAD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0FCE249C-A9F3-48F6-A954-335B7C0417D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7E3828A1-93DE-4809-BFF3-07B40E9C3E9D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{29D45B45-AA8D-4286-9183-6032EA1FBCAC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9297418B-08C8-4248-AB6A-9D1CE3E15C74}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B554DE6C-BFEA-48FF-9F7D-9A52B0ECD0E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CFA47B6E-94DD-41B5-8AAA-827C264B943B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{68CBD825-1C7D-4A3D-A792-D670FA8ED563}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E9DF30DA-4479-4D61-B08E-8C99800A5678}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CEB3D8A0-BC47-414B-A05A-84EC22DA797A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8E6AE011-83C8-40B5-8F6D-31B4A9076776}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{64D6543E-7D04-4CF4-AFA1-204B69F1013E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{96074542-6E6F-4E11-BB41-62C175F8BC9C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{78125F6D-FD2D-44F5-9358-AA1CC64DCB52}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3DDCAB07-C120-4DDD-AE7E-A28325778D04}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{67EF3C24-5A4A-4AE7-B5E0-2A88BBF3CA8B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0EFDE359-F6B4-4C3B-B184-161883D5BE76}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F1FB7F1B-AD7C-4226-945F-AE6429C058F6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12421,7 +12421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FCD8E5-0025-45E4-8ECB-BB44A0308BDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38ACD2B-1C5F-4C4C-BC29-FAC2A8E9A980}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13632,18 +13632,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0F71A6FB-2619-424C-9968-C451FA5A42E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{38BDF71A-0297-4D59-924C-4B9CB554FE61}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{675163C2-67B1-401A-9E52-8B92CE6282FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{28615A78-6F1C-4600-AD69-4E98E60EBFBA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{22C605FC-E8D3-4091-995F-9B2A9DC681C5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{71C0BA67-B2E5-44A8-B562-87023C75B01C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EF1D1DE3-4110-415F-8615-898F8313F375}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EDC7B33D-D71A-4671-9136-AAF245A8A088}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{81D016C7-56D6-4D79-8D17-4ABF04C70306}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{086B889C-C856-46CD-A2A1-0C10BED558C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{373362C3-C61B-444F-A9BE-5FF9C33F97F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3D397013-1104-4C64-B128-308876BB6457}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0A9D9F84-EB12-4B95-B97D-55F380F23245}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{35680E7B-D6DB-47B5-87FC-195631996CE2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8AED2BF8-6E1D-4B6A-88FA-D4C2D4E5F1C6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{00FCF09D-8F17-48FF-84A2-FB8BCFBCE95D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F08DCA8C-C984-43E6-A876-74028E8BCED0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4641541E-B862-418E-A77F-3A2F33EA6AAE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C6456153-C85E-454E-8157-555DD7A45384}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6D74EC13-4E47-452A-B65A-9E80CDA9B42A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5F8FCF75-872F-4435-B585-32775AC72D11}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{05DC31F3-349D-4FFE-ADEB-35B9852408E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3233B699-655D-47D8-AE30-DB3C0963C377}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8946981D-27F7-4C00-81C7-88E7B0683D6F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13656,7 +13656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEF791E-987E-4668-953C-3764A1713303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841CD9B3-BE48-4288-8B2D-C8A38011CD87}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14867,18 +14867,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9E6FA122-DA56-4259-B3DE-F62609351A07}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{44344D60-855F-492F-A600-01A692EB6509}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{652999F9-5659-47AC-B61F-DA689AEB4134}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8C0F5CBA-F5AF-4F1A-B012-33518B4032BF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2A7E95BE-7096-41F0-A5FC-2E0FB65D2AC8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{482592CD-614E-4522-BE11-031572F39D94}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2AF53A4F-36BB-4E79-A97A-60318C084D96}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E6EC7D85-EED6-4653-A291-5BE1D6A5897F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0313A7E2-4D25-4A44-89C5-1423C5175B20}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B45495A3-0562-44CC-9446-C933AED5EDAA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{02806182-8D25-4B6D-9307-3BF969F3B0BB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8CF0B4CD-7BE2-4651-9CAD-3062009CA864}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0C0FFF6D-38EE-4D83-A159-59E459C3989F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{574B423F-C391-4309-89CC-054B6F119DA1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{595F49BC-D141-4340-AFA5-BB1D3BCCFDCA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6EFD6528-66CB-42C2-8F9F-A90F23A28922}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1AA3D176-6B5F-4BAE-8453-82D3E74A1A5E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{776A65E5-5C6B-4C51-9501-355950F16036}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FA59EE73-40FD-4249-9ED9-FC0753E9A538}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1BF8D06F-6DB4-43C0-B751-43E807E03D8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0E9EE97F-FC07-4AE6-8C51-062F43F7BC48}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BDE0A3D9-8855-4601-90B2-3F53681D4325}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{20C89E12-002B-40BB-932A-7B257DF8226A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{036C246A-44A4-49BF-B45C-37B078F93369}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14891,7 +14891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35BE5DA-32A0-4732-BCA7-665FBA035EC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867CA0AE-E3C3-4B4D-A1E7-E335276B9EEA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16094,18 +16094,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9305FAB1-3B71-455C-A40C-2288F6E3489A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{90EEED0F-154D-4FF4-976B-D8DC04952C36}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9389BECB-313B-4BCF-BB50-DEE28AFC2F7F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A1C1A0B4-5F0C-4B1F-AA57-02C7D6A8E085}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5835ABBF-401E-4189-BD9E-FDC59F49D5C5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{88531F72-855C-40C9-A1F1-C5D780D7BBFB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{317ED586-0685-4B7B-A20D-13D3E8349480}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{14A94351-EDA6-485E-99C6-C07F65B1F562}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2B832E9F-163A-45EE-A039-6FCAF31DF9A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7A92F0C2-F6E7-4460-ACC8-DB3144F807B2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{807608C4-A3CE-40BA-9AC1-196C577AFBF6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DB39EAFD-62AF-44A2-A635-DFD8B229BBC4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{86B958FC-8F2C-4AA5-BC66-B28339E269DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A3AE79A7-37AA-4198-B49B-D705A8821500}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2F2589FA-8AD1-4AC9-94A4-04F4817D4253}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E73567D7-4F9A-4EC9-9ADA-CD6787234265}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{769EBEDB-0A66-4A66-8891-74083CB9D7C3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{59D25C78-55B4-475F-9E46-6A3F14A7CA4F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{46557698-C21D-418B-BBCD-BD0AD457F000}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9188E369-C087-4DAA-885E-0A579B6671F4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{62861284-C5FB-411B-8B88-A14723F47CB3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7CB86D96-C986-441E-955D-48D443AA7C10}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D836012A-0E07-418F-88AE-1F55F08F40A3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F4B53D81-B8D0-42A1-91C0-B169C8A0C2B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
